--- a/ITI/BALP/StructureDefinition-IHE.BasicAudit.Create.xlsx
+++ b/ITI/BALP/StructureDefinition-IHE.BasicAudit.Create.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-04T10:16:52-05:00</t>
+    <t>2022-10-21T09:04:31-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -85,12 +85,14 @@
   </si>
   <si>
     <t>A basic AuditEvent profile for when a RESTful Create action happens successfully.
-- Given a Resource Create is requested with no Patient subject
-- And OAuth is used to authorize both app and user
-- When an App requests a RESTful Create of a new Resource
-- And the new Resource is successfully created thus having an id assigned
-- Then an AuditEvent following this profile is recorded 
-- And when a user is known they are the Author, Informant, or Custodian</t>
+- Given a Resource Create is requested 
+- And that resource does not have a Patient subject or is otherwise associated with a Patient
+  - when the resource is Patient specific then [PatientCreate](StructureDefinition-IHE.BasicAudit.PatientCreate.html) is used
+- And the request is authorized
+  - Authorization failures should follow [FHIR core Access Denied](http://hl7.org/fhir/security.html#AccessDenied)
+- When successful
+  - Note a failure AuditEvent may follow this pattern, but would not be a successful outcome and should have an OperationOutcome
+- Then the AuditEvent recorded will conform</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -276,10 +278,6 @@
     <t>Based on IHE-ATNA.</t>
   </si>
   <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
-  </si>
-  <si>
     <t>Event</t>
   </si>
   <si>
@@ -298,7 +296,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">string
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -675,6 +673,10 @@
   </si>
   <si>
     <t>AuditEvent.outcomeDesc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
   </si>
   <si>
     <t>Description of the event outcome</t>
@@ -2186,7 +2188,7 @@
     <col min="1" max="1" width="41.4609375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="11.15234375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.90234375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
@@ -2202,28 +2204,28 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.71484375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.08984375" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="95.56640625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="54.15625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.0390625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.98828125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.3046875" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.87890625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="26.71875" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="155.37890625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="49.38671875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="49.390625" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="32.84375" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="34.4140625" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="40.0" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="40.00390625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2447,16 +2449,16 @@
         <v>78</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="AJ2" t="s" s="2">
+      <c r="AK2" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="AK2" t="s" s="2">
+      <c r="AL2" t="s" s="2">
         <v>86</v>
-      </c>
-      <c r="AL2" t="s" s="2">
-        <v>87</v>
       </c>
       <c r="AM2" t="s" s="2">
         <v>78</v>
@@ -2470,7 +2472,7 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -2481,28 +2483,28 @@
         <v>79</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I3" t="s" s="2">
+      <c r="J3" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -2552,13 +2554,13 @@
         <v>78</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>78</v>
@@ -2587,7 +2589,7 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -2598,25 +2600,25 @@
         <v>79</v>
       </c>
       <c r="F4" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J4" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>98</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>99</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -2667,19 +2669,19 @@
         <v>78</v>
       </c>
       <c r="AE4" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI4" t="s" s="2">
         <v>100</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>101</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>78</v>
@@ -2702,7 +2704,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -2713,28 +2715,28 @@
         <v>79</v>
       </c>
       <c r="F5" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H5" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G5" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="I5" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>105</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -2784,19 +2786,19 @@
         <v>78</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>78</v>
@@ -2819,7 +2821,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -2830,7 +2832,7 @@
         <v>79</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>78</v>
@@ -2842,16 +2844,16 @@
         <v>78</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>112</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2877,43 +2879,43 @@
         <v>78</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="X6" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="Y6" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>116</v>
-      </c>
       <c r="AF6" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>78</v>
@@ -2936,18 +2938,18 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>78</v>
@@ -2959,16 +2961,16 @@
         <v>78</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>122</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -3018,25 +3020,25 @@
         <v>78</v>
       </c>
       <c r="AE7" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK7" t="s" s="2">
         <v>123</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>124</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>78</v>
@@ -3053,11 +3055,11 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -3076,16 +3078,16 @@
         <v>78</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -3135,7 +3137,7 @@
         <v>78</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>79</v>
@@ -3153,7 +3155,7 @@
         <v>78</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>78</v>
@@ -3170,11 +3172,11 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -3193,16 +3195,16 @@
         <v>78</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>138</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -3252,7 +3254,7 @@
         <v>78</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>79</v>
@@ -3264,13 +3266,13 @@
         <v>78</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>78</v>
@@ -3287,11 +3289,11 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -3304,25 +3306,25 @@
         <v>78</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="N10" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="O10" t="s" s="2">
         <v>78</v>
@@ -3371,7 +3373,7 @@
         <v>78</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>79</v>
@@ -3383,13 +3385,13 @@
         <v>78</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>78</v>
@@ -3406,7 +3408,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -3414,32 +3416,32 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F11" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I11" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F11" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I11" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J11" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>149</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O11" t="s" s="2">
         <v>78</v>
@@ -3449,73 +3451,73 @@
         <v>78</v>
       </c>
       <c r="R11" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="S11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W11" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="S11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W11" t="s" s="2">
+      <c r="X11" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="X11" t="s" s="2">
+      <c r="Y11" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="Y11" t="s" s="2">
+      <c r="Z11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE11" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AF11" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AG11" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI11" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ11" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="Z11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE11" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="AF11" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AG11" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI11" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ11" t="s" s="2">
+      <c r="AK11" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="AK11" t="s" s="2">
+      <c r="AL11" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="AL11" t="s" s="2">
+      <c r="AM11" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="AM11" t="s" s="2">
+      <c r="AN11" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="AN11" t="s" s="2">
-        <v>159</v>
       </c>
       <c r="AO11" t="s" s="2">
         <v>78</v>
@@ -3523,7 +3525,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -3531,7 +3533,7 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F12" t="s" s="2">
         <v>80</v>
@@ -3543,20 +3545,20 @@
         <v>78</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O12" t="s" s="2">
         <v>78</v>
@@ -3581,29 +3583,29 @@
         <v>78</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X12" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="Y12" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="Y12" t="s" s="2">
+      <c r="Z12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA12" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="Z12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA12" t="s" s="2">
-        <v>166</v>
       </c>
       <c r="AB12" s="2"/>
       <c r="AC12" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>79</v>
@@ -3615,19 +3617,19 @@
         <v>78</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>78</v>
@@ -3638,52 +3640,52 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F13" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I13" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F13" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I13" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J13" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>170</v>
+        <v>78</v>
       </c>
       <c r="R13" t="s" s="2">
-        <v>78</v>
+        <v>169</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>78</v>
@@ -3698,14 +3700,14 @@
         <v>78</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X13" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="Y13" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="Y13" t="s" s="2">
-        <v>165</v>
-      </c>
       <c r="Z13" t="s" s="2">
         <v>78</v>
       </c>
@@ -3722,7 +3724,7 @@
         <v>78</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>79</v>
@@ -3734,19 +3736,19 @@
         <v>78</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>78</v>
@@ -3757,7 +3759,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3768,29 +3770,29 @@
         <v>79</v>
       </c>
       <c r="F14" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I14" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I14" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J14" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>78</v>
@@ -3800,70 +3802,70 @@
         <v>78</v>
       </c>
       <c r="R14" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="S14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W14" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="S14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W14" t="s" s="2">
+      <c r="X14" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="X14" t="s" s="2">
+      <c r="Y14" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="Y14" t="s" s="2">
+      <c r="Z14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AF14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK14" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AL14" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="Z14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK14" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="AL14" t="s" s="2">
-        <v>179</v>
-      </c>
       <c r="AM14" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>78</v>
@@ -3874,7 +3876,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3885,7 +3887,7 @@
         <v>79</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>78</v>
@@ -3897,16 +3899,16 @@
         <v>78</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="K15" t="s" s="2">
+      <c r="L15" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>183</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>184</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -3956,42 +3958,42 @@
         <v>78</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ15" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="AK15" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="AK15" t="s" s="2">
+      <c r="AL15" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="AL15" t="s" s="2">
+      <c r="AM15" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="AM15" t="s" s="2">
+      <c r="AN15" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="AN15" t="s" s="2">
+      <c r="AO15" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="AO15" t="s" s="2">
-        <v>190</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3999,34 +4001,34 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F16" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I16" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F16" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I16" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J16" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="L16" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>78</v>
@@ -4075,42 +4077,42 @@
         <v>78</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK16" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="AL16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM16" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="AL16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM16" t="s" s="2">
+      <c r="AN16" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="AN16" t="s" s="2">
+      <c r="AO16" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="AO16" t="s" s="2">
-        <v>200</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -4121,28 +4123,28 @@
         <v>79</v>
       </c>
       <c r="F17" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I17" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I17" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J17" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -4168,55 +4170,55 @@
         <v>78</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Y17" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="Z17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="AF17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG17" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK17" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="Z17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="AF17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG17" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK17" t="s" s="2">
+      <c r="AL17" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="AL17" t="s" s="2">
-        <v>207</v>
-      </c>
       <c r="AM17" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>78</v>
@@ -4227,7 +4229,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -4238,19 +4240,19 @@
         <v>79</v>
       </c>
       <c r="F18" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I18" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I18" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J18" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K18" t="s" s="2">
         <v>209</v>
@@ -4307,19 +4309,19 @@
         <v>78</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>78</v>
@@ -4331,7 +4333,7 @@
         <v>212</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>78</v>
@@ -4362,7 +4364,7 @@
         <v>78</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J19" t="s" s="2">
         <v>214</v>
@@ -4400,7 +4402,7 @@
         <v>78</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X19" t="s" s="2">
         <v>218</v>
@@ -4436,7 +4438,7 @@
         <v>78</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>220</v>
@@ -4538,13 +4540,13 @@
         <v>78</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AE20" t="s" s="2">
         <v>226</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
@@ -4553,7 +4555,7 @@
         <v>78</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>235</v>
@@ -4587,7 +4589,7 @@
         <v>79</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>78</v>
@@ -4599,7 +4601,7 @@
         <v>78</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K21" t="s" s="2">
         <v>242</v>
@@ -4662,7 +4664,7 @@
         <v>79</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>78</v>
@@ -4695,7 +4697,7 @@
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -4714,16 +4716,16 @@
         <v>78</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K22" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L22" t="s" s="2">
         <v>247</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -4785,7 +4787,7 @@
         <v>78</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>78</v>
@@ -4825,13 +4827,13 @@
         <v>78</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K23" t="s" s="2">
         <v>251</v>
@@ -4840,10 +4842,10 @@
         <v>252</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>78</v>
@@ -4904,13 +4906,13 @@
         <v>78</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>78</v>
@@ -4938,7 +4940,7 @@
         <v>79</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>78</v>
@@ -4983,7 +4985,7 @@
         <v>78</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X24" t="s" s="2">
         <v>257</v>
@@ -5013,13 +5015,13 @@
         <v>79</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>259</v>
@@ -5138,7 +5140,7 @@
         <v>78</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>78</v>
@@ -5172,16 +5174,16 @@
         <v>79</v>
       </c>
       <c r="F26" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I26" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="G26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I26" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J26" t="s" s="2">
         <v>276</v>
@@ -5251,13 +5253,13 @@
         <v>79</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>281</v>
@@ -5291,7 +5293,7 @@
         <v>79</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>78</v>
@@ -5303,7 +5305,7 @@
         <v>78</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K27" t="s" s="2">
         <v>287</v>
@@ -5368,13 +5370,13 @@
         <v>79</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>78</v>
@@ -5408,7 +5410,7 @@
         <v>79</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>78</v>
@@ -5420,7 +5422,7 @@
         <v>78</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K28" t="s" s="2">
         <v>293</v>
@@ -5485,13 +5487,13 @@
         <v>79</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>78</v>
@@ -5522,19 +5524,19 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F29" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I29" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="F29" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I29" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J29" t="s" s="2">
         <v>299</v>
@@ -5601,16 +5603,16 @@
         <v>298</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>78</v>
@@ -5644,7 +5646,7 @@
         <v>79</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>78</v>
@@ -5719,13 +5721,13 @@
         <v>79</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>310</v>
@@ -5771,7 +5773,7 @@
         <v>78</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K31" t="s" s="2">
         <v>316</v>
@@ -5844,7 +5846,7 @@
         <v>78</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>78</v>
@@ -5878,7 +5880,7 @@
         <v>79</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>78</v>
@@ -5890,7 +5892,7 @@
         <v>78</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K32" t="s" s="2">
         <v>324</v>
@@ -5925,7 +5927,7 @@
         <v>78</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X32" t="s" s="2">
         <v>327</v>
@@ -5955,13 +5957,13 @@
         <v>79</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>78</v>
@@ -5995,7 +5997,7 @@
         <v>79</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>78</v>
@@ -6070,13 +6072,13 @@
         <v>79</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>78</v>
@@ -6110,7 +6112,7 @@
         <v>79</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>78</v>
@@ -6122,7 +6124,7 @@
         <v>78</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K34" t="s" s="2">
         <v>242</v>
@@ -6185,7 +6187,7 @@
         <v>79</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>78</v>
@@ -6218,7 +6220,7 @@
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -6237,16 +6239,16 @@
         <v>78</v>
       </c>
       <c r="J35" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K35" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K35" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L35" t="s" s="2">
         <v>247</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -6308,7 +6310,7 @@
         <v>78</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>78</v>
@@ -6348,13 +6350,13 @@
         <v>78</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K36" t="s" s="2">
         <v>251</v>
@@ -6363,10 +6365,10 @@
         <v>252</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>78</v>
@@ -6427,13 +6429,13 @@
         <v>78</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>78</v>
@@ -6461,7 +6463,7 @@
         <v>79</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>78</v>
@@ -6473,7 +6475,7 @@
         <v>78</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K37" t="s" s="2">
         <v>339</v>
@@ -6540,13 +6542,13 @@
         <v>79</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>78</v>
@@ -6580,7 +6582,7 @@
         <v>79</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>78</v>
@@ -6592,7 +6594,7 @@
         <v>78</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K38" t="s" s="2">
         <v>347</v>
@@ -6627,7 +6629,7 @@
         <v>78</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="X38" t="s" s="2">
         <v>350</v>
@@ -6657,13 +6659,13 @@
         <v>79</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>78</v>
@@ -6744,7 +6746,7 @@
         <v>78</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X39" t="s" s="2">
         <v>218</v>
@@ -6780,7 +6782,7 @@
         <v>78</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>78</v>
@@ -6813,10 +6815,10 @@
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>78</v>
@@ -6892,7 +6894,7 @@
         <v>226</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -6901,7 +6903,7 @@
         <v>78</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>235</v>
@@ -6935,7 +6937,7 @@
         <v>79</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>78</v>
@@ -6947,7 +6949,7 @@
         <v>78</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K41" t="s" s="2">
         <v>242</v>
@@ -7010,7 +7012,7 @@
         <v>79</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>78</v>
@@ -7043,7 +7045,7 @@
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -7062,16 +7064,16 @@
         <v>78</v>
       </c>
       <c r="J42" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K42" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K42" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L42" t="s" s="2">
         <v>247</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -7133,7 +7135,7 @@
         <v>78</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>78</v>
@@ -7173,13 +7175,13 @@
         <v>78</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K43" t="s" s="2">
         <v>251</v>
@@ -7188,10 +7190,10 @@
         <v>252</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>78</v>
@@ -7252,13 +7254,13 @@
         <v>78</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>78</v>
@@ -7283,10 +7285,10 @@
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>78</v>
@@ -7331,7 +7333,7 @@
         <v>78</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X44" t="s" s="2">
         <v>257</v>
@@ -7361,13 +7363,13 @@
         <v>79</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>259</v>
@@ -7486,7 +7488,7 @@
         <v>78</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>78</v>
@@ -7517,19 +7519,19 @@
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F46" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I46" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="F46" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I46" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J46" t="s" s="2">
         <v>276</v>
@@ -7599,13 +7601,13 @@
         <v>79</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>281</v>
@@ -7639,7 +7641,7 @@
         <v>79</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>78</v>
@@ -7651,7 +7653,7 @@
         <v>78</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K47" t="s" s="2">
         <v>287</v>
@@ -7716,13 +7718,13 @@
         <v>79</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>78</v>
@@ -7756,7 +7758,7 @@
         <v>79</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>78</v>
@@ -7768,7 +7770,7 @@
         <v>78</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K48" t="s" s="2">
         <v>293</v>
@@ -7833,13 +7835,13 @@
         <v>79</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>78</v>
@@ -7870,19 +7872,19 @@
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F49" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I49" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="F49" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I49" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J49" t="s" s="2">
         <v>299</v>
@@ -7949,16 +7951,16 @@
         <v>298</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>78</v>
@@ -7992,7 +7994,7 @@
         <v>79</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>78</v>
@@ -8067,13 +8069,13 @@
         <v>79</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>310</v>
@@ -8119,7 +8121,7 @@
         <v>78</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K51" t="s" s="2">
         <v>316</v>
@@ -8192,7 +8194,7 @@
         <v>78</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>78</v>
@@ -8238,7 +8240,7 @@
         <v>78</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K52" t="s" s="2">
         <v>324</v>
@@ -8273,7 +8275,7 @@
         <v>78</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X52" t="s" s="2">
         <v>327</v>
@@ -8303,13 +8305,13 @@
         <v>79</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>78</v>
@@ -8340,10 +8342,10 @@
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>78</v>
@@ -8418,13 +8420,13 @@
         <v>79</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>78</v>
@@ -8458,7 +8460,7 @@
         <v>79</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>78</v>
@@ -8470,7 +8472,7 @@
         <v>78</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K54" t="s" s="2">
         <v>242</v>
@@ -8533,7 +8535,7 @@
         <v>79</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>78</v>
@@ -8566,7 +8568,7 @@
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -8585,16 +8587,16 @@
         <v>78</v>
       </c>
       <c r="J55" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K55" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K55" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L55" t="s" s="2">
         <v>247</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -8656,7 +8658,7 @@
         <v>78</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>78</v>
@@ -8696,13 +8698,13 @@
         <v>78</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K56" t="s" s="2">
         <v>251</v>
@@ -8711,10 +8713,10 @@
         <v>252</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>78</v>
@@ -8775,13 +8777,13 @@
         <v>78</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>78</v>
@@ -8809,7 +8811,7 @@
         <v>79</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>78</v>
@@ -8821,7 +8823,7 @@
         <v>78</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K57" t="s" s="2">
         <v>339</v>
@@ -8888,13 +8890,13 @@
         <v>79</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>78</v>
@@ -8928,7 +8930,7 @@
         <v>79</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>78</v>
@@ -8940,7 +8942,7 @@
         <v>78</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K58" t="s" s="2">
         <v>347</v>
@@ -8975,7 +8977,7 @@
         <v>78</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="X58" t="s" s="2">
         <v>350</v>
@@ -9005,13 +9007,13 @@
         <v>79</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>78</v>
@@ -9092,7 +9094,7 @@
         <v>78</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X59" t="s" s="2">
         <v>218</v>
@@ -9128,7 +9130,7 @@
         <v>78</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>78</v>
@@ -9161,10 +9163,10 @@
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>78</v>
@@ -9240,7 +9242,7 @@
         <v>226</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
@@ -9249,7 +9251,7 @@
         <v>78</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>235</v>
@@ -9283,7 +9285,7 @@
         <v>79</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>78</v>
@@ -9295,7 +9297,7 @@
         <v>78</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K61" t="s" s="2">
         <v>242</v>
@@ -9358,7 +9360,7 @@
         <v>79</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>78</v>
@@ -9391,7 +9393,7 @@
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -9410,16 +9412,16 @@
         <v>78</v>
       </c>
       <c r="J62" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K62" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K62" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L62" t="s" s="2">
         <v>247</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -9481,7 +9483,7 @@
         <v>78</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>78</v>
@@ -9521,13 +9523,13 @@
         <v>78</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K63" t="s" s="2">
         <v>251</v>
@@ -9536,10 +9538,10 @@
         <v>252</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>78</v>
@@ -9600,13 +9602,13 @@
         <v>78</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>78</v>
@@ -9631,10 +9633,10 @@
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>78</v>
@@ -9679,7 +9681,7 @@
         <v>78</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X64" t="s" s="2">
         <v>257</v>
@@ -9709,13 +9711,13 @@
         <v>79</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>259</v>
@@ -9834,7 +9836,7 @@
         <v>78</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>78</v>
@@ -9865,19 +9867,19 @@
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F66" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I66" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="F66" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I66" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J66" t="s" s="2">
         <v>276</v>
@@ -9947,13 +9949,13 @@
         <v>79</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>281</v>
@@ -9987,7 +9989,7 @@
         <v>79</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>78</v>
@@ -9999,7 +10001,7 @@
         <v>78</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K67" t="s" s="2">
         <v>287</v>
@@ -10064,13 +10066,13 @@
         <v>79</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>78</v>
@@ -10104,7 +10106,7 @@
         <v>79</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>78</v>
@@ -10116,7 +10118,7 @@
         <v>78</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K68" t="s" s="2">
         <v>293</v>
@@ -10181,13 +10183,13 @@
         <v>79</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>78</v>
@@ -10218,19 +10220,19 @@
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F69" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I69" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="F69" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I69" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J69" t="s" s="2">
         <v>299</v>
@@ -10297,16 +10299,16 @@
         <v>298</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>78</v>
@@ -10340,7 +10342,7 @@
         <v>79</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>78</v>
@@ -10415,13 +10417,13 @@
         <v>79</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>310</v>
@@ -10467,7 +10469,7 @@
         <v>78</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K71" t="s" s="2">
         <v>316</v>
@@ -10540,7 +10542,7 @@
         <v>78</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>78</v>
@@ -10586,7 +10588,7 @@
         <v>78</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K72" t="s" s="2">
         <v>324</v>
@@ -10621,7 +10623,7 @@
         <v>78</v>
       </c>
       <c r="W72" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X72" t="s" s="2">
         <v>327</v>
@@ -10651,13 +10653,13 @@
         <v>79</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>78</v>
@@ -10688,10 +10690,10 @@
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>78</v>
@@ -10766,13 +10768,13 @@
         <v>79</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>78</v>
@@ -10806,7 +10808,7 @@
         <v>79</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>78</v>
@@ -10818,7 +10820,7 @@
         <v>78</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K74" t="s" s="2">
         <v>242</v>
@@ -10881,7 +10883,7 @@
         <v>79</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>78</v>
@@ -10914,7 +10916,7 @@
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
@@ -10933,16 +10935,16 @@
         <v>78</v>
       </c>
       <c r="J75" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K75" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K75" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L75" t="s" s="2">
         <v>247</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
@@ -11004,7 +11006,7 @@
         <v>78</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>78</v>
@@ -11044,13 +11046,13 @@
         <v>78</v>
       </c>
       <c r="H76" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K76" t="s" s="2">
         <v>251</v>
@@ -11059,10 +11061,10 @@
         <v>252</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>78</v>
@@ -11123,13 +11125,13 @@
         <v>78</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>78</v>
@@ -11157,7 +11159,7 @@
         <v>79</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>78</v>
@@ -11169,7 +11171,7 @@
         <v>78</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K77" t="s" s="2">
         <v>339</v>
@@ -11236,13 +11238,13 @@
         <v>79</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>78</v>
@@ -11276,7 +11278,7 @@
         <v>79</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>78</v>
@@ -11288,7 +11290,7 @@
         <v>78</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K78" t="s" s="2">
         <v>347</v>
@@ -11323,7 +11325,7 @@
         <v>78</v>
       </c>
       <c r="W78" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="X78" t="s" s="2">
         <v>350</v>
@@ -11353,13 +11355,13 @@
         <v>79</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>78</v>
@@ -11440,7 +11442,7 @@
         <v>78</v>
       </c>
       <c r="W79" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X79" t="s" s="2">
         <v>218</v>
@@ -11476,7 +11478,7 @@
         <v>78</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>78</v>
@@ -11512,7 +11514,7 @@
         <v>79</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>78</v>
@@ -11588,7 +11590,7 @@
         <v>226</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>80</v>
@@ -11597,7 +11599,7 @@
         <v>78</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>235</v>
@@ -11631,7 +11633,7 @@
         <v>79</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>78</v>
@@ -11643,7 +11645,7 @@
         <v>78</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K81" t="s" s="2">
         <v>242</v>
@@ -11706,7 +11708,7 @@
         <v>79</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>78</v>
@@ -11739,7 +11741,7 @@
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
@@ -11758,16 +11760,16 @@
         <v>78</v>
       </c>
       <c r="J82" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K82" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K82" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L82" t="s" s="2">
         <v>247</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
@@ -11829,7 +11831,7 @@
         <v>78</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>78</v>
@@ -11869,13 +11871,13 @@
         <v>78</v>
       </c>
       <c r="H83" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K83" t="s" s="2">
         <v>251</v>
@@ -11884,10 +11886,10 @@
         <v>252</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>78</v>
@@ -11948,13 +11950,13 @@
         <v>78</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>78</v>
@@ -11982,7 +11984,7 @@
         <v>79</v>
       </c>
       <c r="F84" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>78</v>
@@ -12027,7 +12029,7 @@
         <v>78</v>
       </c>
       <c r="W84" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="X84" s="2"/>
       <c r="Y84" t="s" s="2">
@@ -12055,13 +12057,13 @@
         <v>79</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>259</v>
@@ -12098,7 +12100,7 @@
         <v>80</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>78</v>
@@ -12180,7 +12182,7 @@
         <v>78</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ85" t="s" s="2">
         <v>78</v>
@@ -12211,19 +12213,19 @@
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F86" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I86" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="F86" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I86" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J86" t="s" s="2">
         <v>276</v>
@@ -12293,13 +12295,13 @@
         <v>79</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>281</v>
@@ -12333,7 +12335,7 @@
         <v>79</v>
       </c>
       <c r="F87" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>78</v>
@@ -12345,7 +12347,7 @@
         <v>78</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K87" t="s" s="2">
         <v>287</v>
@@ -12410,13 +12412,13 @@
         <v>79</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>78</v>
@@ -12450,11 +12452,11 @@
         <v>79</v>
       </c>
       <c r="F88" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G88" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G88" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="H88" t="s" s="2">
         <v>78</v>
       </c>
@@ -12462,7 +12464,7 @@
         <v>78</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K88" t="s" s="2">
         <v>293</v>
@@ -12527,13 +12529,13 @@
         <v>79</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH88" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ88" t="s" s="2">
         <v>78</v>
@@ -12564,19 +12566,19 @@
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F89" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I89" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="F89" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I89" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J89" t="s" s="2">
         <v>299</v>
@@ -12643,16 +12645,16 @@
         <v>298</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH89" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ89" t="s" s="2">
         <v>78</v>
@@ -12686,7 +12688,7 @@
         <v>79</v>
       </c>
       <c r="F90" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G90" t="s" s="2">
         <v>78</v>
@@ -12761,13 +12763,13 @@
         <v>79</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ90" t="s" s="2">
         <v>310</v>
@@ -12813,7 +12815,7 @@
         <v>78</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K91" t="s" s="2">
         <v>316</v>
@@ -12886,7 +12888,7 @@
         <v>78</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>78</v>
@@ -12932,7 +12934,7 @@
         <v>78</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K92" t="s" s="2">
         <v>324</v>
@@ -12967,7 +12969,7 @@
         <v>78</v>
       </c>
       <c r="W92" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X92" t="s" s="2">
         <v>327</v>
@@ -12997,13 +12999,13 @@
         <v>79</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH92" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ92" t="s" s="2">
         <v>78</v>
@@ -13112,13 +13114,13 @@
         <v>79</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH93" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ93" t="s" s="2">
         <v>78</v>
@@ -13152,7 +13154,7 @@
         <v>79</v>
       </c>
       <c r="F94" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G94" t="s" s="2">
         <v>78</v>
@@ -13164,7 +13166,7 @@
         <v>78</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K94" t="s" s="2">
         <v>242</v>
@@ -13227,7 +13229,7 @@
         <v>79</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH94" t="s" s="2">
         <v>78</v>
@@ -13260,7 +13262,7 @@
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" t="s" s="2">
@@ -13279,16 +13281,16 @@
         <v>78</v>
       </c>
       <c r="J95" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K95" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K95" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L95" t="s" s="2">
         <v>247</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
@@ -13350,7 +13352,7 @@
         <v>78</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ95" t="s" s="2">
         <v>78</v>
@@ -13390,13 +13392,13 @@
         <v>78</v>
       </c>
       <c r="H96" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I96" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K96" t="s" s="2">
         <v>251</v>
@@ -13405,10 +13407,10 @@
         <v>252</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O96" t="s" s="2">
         <v>78</v>
@@ -13469,13 +13471,13 @@
         <v>78</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ96" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL96" t="s" s="2">
         <v>78</v>
@@ -13503,7 +13505,7 @@
         <v>79</v>
       </c>
       <c r="F97" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G97" t="s" s="2">
         <v>78</v>
@@ -13515,7 +13517,7 @@
         <v>78</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K97" t="s" s="2">
         <v>339</v>
@@ -13582,13 +13584,13 @@
         <v>79</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH97" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ97" t="s" s="2">
         <v>78</v>
@@ -13622,7 +13624,7 @@
         <v>79</v>
       </c>
       <c r="F98" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G98" t="s" s="2">
         <v>78</v>
@@ -13634,7 +13636,7 @@
         <v>78</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K98" t="s" s="2">
         <v>347</v>
@@ -13669,7 +13671,7 @@
         <v>78</v>
       </c>
       <c r="W98" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="X98" t="s" s="2">
         <v>350</v>
@@ -13699,13 +13701,13 @@
         <v>79</v>
       </c>
       <c r="AG98" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH98" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ98" t="s" s="2">
         <v>78</v>
@@ -13742,7 +13744,7 @@
         <v>80</v>
       </c>
       <c r="G99" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H99" t="s" s="2">
         <v>78</v>
@@ -13786,7 +13788,7 @@
         <v>78</v>
       </c>
       <c r="W99" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X99" t="s" s="2">
         <v>218</v>
@@ -13822,7 +13824,7 @@
         <v>78</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ99" t="s" s="2">
         <v>78</v>
@@ -13853,13 +13855,13 @@
       </c>
       <c r="D100" s="2"/>
       <c r="E100" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F100" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G100" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="F100" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G100" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="H100" t="s" s="2">
         <v>78</v>
@@ -13932,16 +13934,16 @@
         <v>366</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG100" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH100" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI100" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ100" t="s" s="2">
         <v>78</v>
@@ -13975,7 +13977,7 @@
         <v>79</v>
       </c>
       <c r="F101" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G101" t="s" s="2">
         <v>78</v>
@@ -13987,7 +13989,7 @@
         <v>78</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K101" t="s" s="2">
         <v>242</v>
@@ -14050,7 +14052,7 @@
         <v>79</v>
       </c>
       <c r="AG101" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH101" t="s" s="2">
         <v>78</v>
@@ -14083,7 +14085,7 @@
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" t="s" s="2">
@@ -14102,16 +14104,16 @@
         <v>78</v>
       </c>
       <c r="J102" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K102" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K102" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L102" t="s" s="2">
         <v>247</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" t="s" s="2">
@@ -14173,7 +14175,7 @@
         <v>78</v>
       </c>
       <c r="AI102" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ102" t="s" s="2">
         <v>78</v>
@@ -14213,13 +14215,13 @@
         <v>78</v>
       </c>
       <c r="H103" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I103" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K103" t="s" s="2">
         <v>251</v>
@@ -14228,10 +14230,10 @@
         <v>252</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O103" t="s" s="2">
         <v>78</v>
@@ -14292,13 +14294,13 @@
         <v>78</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ103" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL103" t="s" s="2">
         <v>78</v>
@@ -14326,7 +14328,7 @@
         <v>79</v>
       </c>
       <c r="F104" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G104" t="s" s="2">
         <v>78</v>
@@ -14338,7 +14340,7 @@
         <v>78</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K104" t="s" s="2">
         <v>378</v>
@@ -14403,13 +14405,13 @@
         <v>79</v>
       </c>
       <c r="AG104" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH104" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ104" t="s" s="2">
         <v>78</v>
@@ -14440,19 +14442,19 @@
       </c>
       <c r="D105" s="2"/>
       <c r="E105" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F105" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I105" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="F105" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G105" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H105" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I105" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J105" t="s" s="2">
         <v>276</v>
@@ -14517,16 +14519,16 @@
         <v>383</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG105" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH105" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI105" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ105" t="s" s="2">
         <v>78</v>
@@ -14572,7 +14574,7 @@
         <v>78</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K106" t="s" s="2">
         <v>390</v>
@@ -14607,7 +14609,7 @@
         <v>78</v>
       </c>
       <c r="W106" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X106" t="s" s="2">
         <v>393</v>
@@ -14643,7 +14645,7 @@
         <v>78</v>
       </c>
       <c r="AI106" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ106" t="s" s="2">
         <v>78</v>
@@ -14674,7 +14676,7 @@
       </c>
       <c r="D107" s="2"/>
       <c r="E107" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F107" t="s" s="2">
         <v>80</v>
@@ -14745,7 +14747,7 @@
         <v>78</v>
       </c>
       <c r="AD107" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AE107" t="s" s="2">
         <v>397</v>
@@ -14772,7 +14774,7 @@
         <v>405</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN107" t="s" s="2">
         <v>406</v>
@@ -14794,7 +14796,7 @@
         <v>79</v>
       </c>
       <c r="F108" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G108" t="s" s="2">
         <v>78</v>
@@ -14806,7 +14808,7 @@
         <v>78</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K108" t="s" s="2">
         <v>242</v>
@@ -14869,7 +14871,7 @@
         <v>79</v>
       </c>
       <c r="AG108" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH108" t="s" s="2">
         <v>78</v>
@@ -14902,7 +14904,7 @@
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" t="s" s="2">
@@ -14921,16 +14923,16 @@
         <v>78</v>
       </c>
       <c r="J109" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K109" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K109" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L109" t="s" s="2">
         <v>247</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N109" s="2"/>
       <c r="O109" t="s" s="2">
@@ -14992,7 +14994,7 @@
         <v>78</v>
       </c>
       <c r="AI109" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ109" t="s" s="2">
         <v>78</v>
@@ -15032,13 +15034,13 @@
         <v>78</v>
       </c>
       <c r="H110" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I110" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K110" t="s" s="2">
         <v>251</v>
@@ -15047,10 +15049,10 @@
         <v>252</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O110" t="s" s="2">
         <v>78</v>
@@ -15111,13 +15113,13 @@
         <v>78</v>
       </c>
       <c r="AI110" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ110" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK110" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL110" t="s" s="2">
         <v>78</v>
@@ -15145,16 +15147,16 @@
         <v>79</v>
       </c>
       <c r="F111" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G111" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H111" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I111" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="G111" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H111" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I111" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J111" t="s" s="2">
         <v>412</v>
@@ -15220,13 +15222,13 @@
         <v>79</v>
       </c>
       <c r="AG111" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH111" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI111" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ111" t="s" s="2">
         <v>78</v>
@@ -15238,7 +15240,7 @@
         <v>415</v>
       </c>
       <c r="AM111" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN111" t="s" s="2">
         <v>78</v>
@@ -15260,7 +15262,7 @@
         <v>79</v>
       </c>
       <c r="F112" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G112" t="s" s="2">
         <v>78</v>
@@ -15272,7 +15274,7 @@
         <v>78</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K112" t="s" s="2">
         <v>418</v>
@@ -15309,7 +15311,7 @@
         <v>78</v>
       </c>
       <c r="W112" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X112" t="s" s="2">
         <v>422</v>
@@ -15339,13 +15341,13 @@
         <v>79</v>
       </c>
       <c r="AG112" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH112" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI112" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ112" t="s" s="2">
         <v>78</v>
@@ -15357,7 +15359,7 @@
         <v>425</v>
       </c>
       <c r="AM112" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN112" t="s" s="2">
         <v>426</v>
@@ -15379,7 +15381,7 @@
         <v>79</v>
       </c>
       <c r="F113" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G113" t="s" s="2">
         <v>78</v>
@@ -15391,7 +15393,7 @@
         <v>78</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K113" t="s" s="2">
         <v>429</v>
@@ -15426,7 +15428,7 @@
         <v>78</v>
       </c>
       <c r="W113" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X113" t="s" s="2">
         <v>432</v>
@@ -15456,13 +15458,13 @@
         <v>79</v>
       </c>
       <c r="AG113" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH113" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI113" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ113" t="s" s="2">
         <v>78</v>
@@ -15496,7 +15498,7 @@
         <v>79</v>
       </c>
       <c r="F114" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G114" t="s" s="2">
         <v>78</v>
@@ -15508,7 +15510,7 @@
         <v>78</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K114" t="s" s="2">
         <v>439</v>
@@ -15545,7 +15547,7 @@
         <v>78</v>
       </c>
       <c r="W114" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X114" t="s" s="2">
         <v>440</v>
@@ -15575,13 +15577,13 @@
         <v>79</v>
       </c>
       <c r="AG114" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH114" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI114" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ114" t="s" s="2">
         <v>78</v>
@@ -15627,7 +15629,7 @@
         <v>78</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K115" t="s" s="2">
         <v>448</v>
@@ -15664,7 +15666,7 @@
         <v>78</v>
       </c>
       <c r="W115" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X115" t="s" s="2">
         <v>452</v>
@@ -15700,7 +15702,7 @@
         <v>78</v>
       </c>
       <c r="AI115" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ115" t="s" s="2">
         <v>78</v>
@@ -15734,19 +15736,19 @@
         <v>79</v>
       </c>
       <c r="F116" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G116" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H116" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I116" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G116" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H116" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I116" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J116" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K116" t="s" s="2">
         <v>457</v>
@@ -15813,13 +15815,13 @@
         <v>79</v>
       </c>
       <c r="AG116" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH116" t="s" s="2">
         <v>461</v>
       </c>
       <c r="AI116" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ116" t="s" s="2">
         <v>78</v>
@@ -15853,7 +15855,7 @@
         <v>79</v>
       </c>
       <c r="F117" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G117" t="s" s="2">
         <v>78</v>
@@ -15865,7 +15867,7 @@
         <v>78</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K117" t="s" s="2">
         <v>466</v>
@@ -15930,13 +15932,13 @@
         <v>79</v>
       </c>
       <c r="AG117" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH117" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI117" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ117" t="s" s="2">
         <v>78</v>
@@ -15970,16 +15972,16 @@
         <v>79</v>
       </c>
       <c r="F118" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G118" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H118" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I118" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="G118" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H118" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I118" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J118" t="s" s="2">
         <v>471</v>
@@ -16049,13 +16051,13 @@
         <v>79</v>
       </c>
       <c r="AG118" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH118" t="s" s="2">
         <v>461</v>
       </c>
       <c r="AI118" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ118" t="s" s="2">
         <v>78</v>
@@ -16172,7 +16174,7 @@
         <v>78</v>
       </c>
       <c r="AI119" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ119" t="s" s="2">
         <v>78</v>
@@ -16206,7 +16208,7 @@
         <v>79</v>
       </c>
       <c r="F120" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G120" t="s" s="2">
         <v>78</v>
@@ -16218,7 +16220,7 @@
         <v>78</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K120" t="s" s="2">
         <v>242</v>
@@ -16281,7 +16283,7 @@
         <v>79</v>
       </c>
       <c r="AG120" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH120" t="s" s="2">
         <v>78</v>
@@ -16314,7 +16316,7 @@
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D121" s="2"/>
       <c r="E121" t="s" s="2">
@@ -16333,16 +16335,16 @@
         <v>78</v>
       </c>
       <c r="J121" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K121" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K121" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L121" t="s" s="2">
         <v>247</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N121" s="2"/>
       <c r="O121" t="s" s="2">
@@ -16404,7 +16406,7 @@
         <v>78</v>
       </c>
       <c r="AI121" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ121" t="s" s="2">
         <v>78</v>
@@ -16444,13 +16446,13 @@
         <v>78</v>
       </c>
       <c r="H122" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I122" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K122" t="s" s="2">
         <v>251</v>
@@ -16459,10 +16461,10 @@
         <v>252</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N122" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O122" t="s" s="2">
         <v>78</v>
@@ -16523,13 +16525,13 @@
         <v>78</v>
       </c>
       <c r="AI122" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ122" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK122" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL122" t="s" s="2">
         <v>78</v>
@@ -16554,10 +16556,10 @@
       </c>
       <c r="D123" s="2"/>
       <c r="E123" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F123" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G123" t="s" s="2">
         <v>78</v>
@@ -16569,7 +16571,7 @@
         <v>78</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K123" t="s" s="2">
         <v>488</v>
@@ -16629,16 +16631,16 @@
         <v>487</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG123" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH123" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI123" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ123" t="s" s="2">
         <v>78</v>
@@ -16669,10 +16671,10 @@
       </c>
       <c r="D124" s="2"/>
       <c r="E124" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F124" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G124" t="s" s="2">
         <v>78</v>
@@ -16748,16 +16750,16 @@
         <v>491</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG124" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH124" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI124" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ124" t="s" s="2">
         <v>78</v>
@@ -16793,7 +16795,7 @@
         <v>79</v>
       </c>
       <c r="F125" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G125" t="s" s="2">
         <v>78</v>
@@ -16890,7 +16892,7 @@
         <v>405</v>
       </c>
       <c r="AM125" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN125" t="s" s="2">
         <v>406</v>
@@ -16912,7 +16914,7 @@
         <v>79</v>
       </c>
       <c r="F126" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G126" t="s" s="2">
         <v>78</v>
@@ -16924,7 +16926,7 @@
         <v>78</v>
       </c>
       <c r="J126" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K126" t="s" s="2">
         <v>242</v>
@@ -16987,7 +16989,7 @@
         <v>79</v>
       </c>
       <c r="AG126" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH126" t="s" s="2">
         <v>78</v>
@@ -17020,7 +17022,7 @@
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D127" s="2"/>
       <c r="E127" t="s" s="2">
@@ -17039,16 +17041,16 @@
         <v>78</v>
       </c>
       <c r="J127" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K127" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K127" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L127" t="s" s="2">
         <v>247</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N127" s="2"/>
       <c r="O127" t="s" s="2">
@@ -17110,7 +17112,7 @@
         <v>78</v>
       </c>
       <c r="AI127" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ127" t="s" s="2">
         <v>78</v>
@@ -17150,13 +17152,13 @@
         <v>78</v>
       </c>
       <c r="H128" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I128" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J128" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K128" t="s" s="2">
         <v>251</v>
@@ -17165,10 +17167,10 @@
         <v>252</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N128" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O128" t="s" s="2">
         <v>78</v>
@@ -17229,13 +17231,13 @@
         <v>78</v>
       </c>
       <c r="AI128" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ128" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK128" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL128" t="s" s="2">
         <v>78</v>
@@ -17263,16 +17265,16 @@
         <v>79</v>
       </c>
       <c r="F129" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G129" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H129" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I129" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="G129" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H129" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I129" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J129" t="s" s="2">
         <v>412</v>
@@ -17338,13 +17340,13 @@
         <v>79</v>
       </c>
       <c r="AG129" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH129" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI129" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ129" t="s" s="2">
         <v>78</v>
@@ -17356,7 +17358,7 @@
         <v>415</v>
       </c>
       <c r="AM129" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN129" t="s" s="2">
         <v>78</v>
@@ -17378,7 +17380,7 @@
         <v>79</v>
       </c>
       <c r="F130" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G130" t="s" s="2">
         <v>78</v>
@@ -17390,7 +17392,7 @@
         <v>78</v>
       </c>
       <c r="J130" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K130" t="s" s="2">
         <v>242</v>
@@ -17453,7 +17455,7 @@
         <v>79</v>
       </c>
       <c r="AG130" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH130" t="s" s="2">
         <v>78</v>
@@ -17486,7 +17488,7 @@
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D131" s="2"/>
       <c r="E131" t="s" s="2">
@@ -17505,16 +17507,16 @@
         <v>78</v>
       </c>
       <c r="J131" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K131" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K131" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L131" t="s" s="2">
         <v>247</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N131" s="2"/>
       <c r="O131" t="s" s="2">
@@ -17561,7 +17563,7 @@
         <v>78</v>
       </c>
       <c r="AD131" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AE131" t="s" s="2">
         <v>248</v>
@@ -17576,7 +17578,7 @@
         <v>78</v>
       </c>
       <c r="AI131" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ131" t="s" s="2">
         <v>78</v>
@@ -17610,19 +17612,19 @@
         <v>79</v>
       </c>
       <c r="F132" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G132" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H132" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I132" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G132" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H132" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I132" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J132" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K132" t="s" s="2">
         <v>505</v>
@@ -17687,19 +17689,19 @@
         <v>79</v>
       </c>
       <c r="AG132" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH132" t="s" s="2">
         <v>509</v>
       </c>
       <c r="AI132" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ132" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK132" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL132" t="s" s="2">
         <v>78</v>
@@ -17727,19 +17729,19 @@
         <v>79</v>
       </c>
       <c r="F133" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G133" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H133" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I133" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G133" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H133" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I133" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J133" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K133" t="s" s="2">
         <v>511</v>
@@ -17774,7 +17776,7 @@
         <v>78</v>
       </c>
       <c r="W133" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X133" t="s" s="2">
         <v>514</v>
@@ -17804,19 +17806,19 @@
         <v>79</v>
       </c>
       <c r="AG133" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH133" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI133" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ133" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK133" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL133" t="s" s="2">
         <v>78</v>
@@ -17844,16 +17846,16 @@
         <v>79</v>
       </c>
       <c r="F134" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G134" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H134" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I134" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="G134" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H134" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I134" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J134" t="s" s="2">
         <v>518</v>
@@ -17921,13 +17923,13 @@
         <v>79</v>
       </c>
       <c r="AG134" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH134" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI134" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ134" t="s" s="2">
         <v>78</v>
@@ -17961,7 +17963,7 @@
         <v>79</v>
       </c>
       <c r="F135" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G135" t="s" s="2">
         <v>78</v>
@@ -17973,7 +17975,7 @@
         <v>78</v>
       </c>
       <c r="J135" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K135" t="s" s="2">
         <v>242</v>
@@ -18036,7 +18038,7 @@
         <v>79</v>
       </c>
       <c r="AG135" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH135" t="s" s="2">
         <v>78</v>
@@ -18069,7 +18071,7 @@
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D136" s="2"/>
       <c r="E136" t="s" s="2">
@@ -18088,16 +18090,16 @@
         <v>78</v>
       </c>
       <c r="J136" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K136" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K136" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L136" t="s" s="2">
         <v>247</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N136" s="2"/>
       <c r="O136" t="s" s="2">
@@ -18144,7 +18146,7 @@
         <v>78</v>
       </c>
       <c r="AD136" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AE136" t="s" s="2">
         <v>248</v>
@@ -18159,7 +18161,7 @@
         <v>78</v>
       </c>
       <c r="AI136" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ136" t="s" s="2">
         <v>78</v>
@@ -18193,19 +18195,19 @@
         <v>79</v>
       </c>
       <c r="F137" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G137" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H137" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G137" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H137" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="I137" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J137" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K137" t="s" s="2">
         <v>527</v>
@@ -18242,7 +18244,7 @@
         <v>78</v>
       </c>
       <c r="W137" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="X137" t="s" s="2">
         <v>531</v>
@@ -18272,13 +18274,13 @@
         <v>79</v>
       </c>
       <c r="AG137" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH137" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI137" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ137" t="s" s="2">
         <v>78</v>
@@ -18312,16 +18314,16 @@
         <v>79</v>
       </c>
       <c r="F138" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G138" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H138" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I138" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="G138" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H138" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I138" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J138" t="s" s="2">
         <v>214</v>
@@ -18361,7 +18363,7 @@
         <v>78</v>
       </c>
       <c r="W138" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X138" t="s" s="2">
         <v>540</v>
@@ -18391,13 +18393,13 @@
         <v>79</v>
       </c>
       <c r="AG138" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH138" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI138" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ138" t="s" s="2">
         <v>78</v>
@@ -18431,19 +18433,19 @@
         <v>79</v>
       </c>
       <c r="F139" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G139" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H139" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I139" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G139" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H139" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I139" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J139" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K139" t="s" s="2">
         <v>544</v>
@@ -18510,13 +18512,13 @@
         <v>79</v>
       </c>
       <c r="AG139" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH139" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI139" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ139" t="s" s="2">
         <v>78</v>
@@ -18547,22 +18549,22 @@
       </c>
       <c r="D140" s="2"/>
       <c r="E140" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F140" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G140" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H140" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I140" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F140" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G140" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H140" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I140" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J140" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K140" t="s" s="2">
         <v>552</v>
@@ -18627,13 +18629,13 @@
         <v>79</v>
       </c>
       <c r="AG140" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH140" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI140" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ140" t="s" s="2">
         <v>78</v>
@@ -18667,19 +18669,19 @@
         <v>79</v>
       </c>
       <c r="F141" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G141" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H141" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I141" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G141" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H141" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I141" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J141" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K141" t="s" s="2">
         <v>559</v>
@@ -18742,13 +18744,13 @@
         <v>79</v>
       </c>
       <c r="AG141" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH141" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI141" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ141" t="s" s="2">
         <v>78</v>
@@ -18782,16 +18784,16 @@
         <v>79</v>
       </c>
       <c r="F142" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G142" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H142" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I142" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="G142" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H142" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I142" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J142" t="s" s="2">
         <v>564</v>
@@ -18859,13 +18861,13 @@
         <v>79</v>
       </c>
       <c r="AG142" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH142" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI142" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ142" t="s" s="2">
         <v>78</v>
@@ -18899,19 +18901,19 @@
         <v>79</v>
       </c>
       <c r="F143" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G143" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H143" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I143" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G143" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H143" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I143" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J143" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K143" t="s" s="2">
         <v>571</v>
@@ -18976,19 +18978,19 @@
         <v>79</v>
       </c>
       <c r="AG143" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH143" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI143" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ143" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK143" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL143" t="s" s="2">
         <v>78</v>
@@ -19013,10 +19015,10 @@
       </c>
       <c r="D144" s="2"/>
       <c r="E144" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F144" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G144" t="s" s="2">
         <v>78</v>
@@ -19028,7 +19030,7 @@
         <v>78</v>
       </c>
       <c r="J144" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K144" t="s" s="2">
         <v>418</v>
@@ -19065,7 +19067,7 @@
         <v>78</v>
       </c>
       <c r="W144" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X144" t="s" s="2">
         <v>422</v>
@@ -19095,13 +19097,13 @@
         <v>79</v>
       </c>
       <c r="AG144" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH144" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI144" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ144" t="s" s="2">
         <v>78</v>
@@ -19113,7 +19115,7 @@
         <v>425</v>
       </c>
       <c r="AM144" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN144" t="s" s="2">
         <v>426</v>
@@ -19135,7 +19137,7 @@
         <v>79</v>
       </c>
       <c r="F145" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G145" t="s" s="2">
         <v>78</v>
@@ -19147,7 +19149,7 @@
         <v>78</v>
       </c>
       <c r="J145" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K145" t="s" s="2">
         <v>429</v>
@@ -19182,7 +19184,7 @@
         <v>78</v>
       </c>
       <c r="W145" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X145" t="s" s="2">
         <v>432</v>
@@ -19212,13 +19214,13 @@
         <v>79</v>
       </c>
       <c r="AG145" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH145" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI145" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ145" t="s" s="2">
         <v>78</v>
@@ -19252,7 +19254,7 @@
         <v>79</v>
       </c>
       <c r="F146" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G146" t="s" s="2">
         <v>78</v>
@@ -19264,7 +19266,7 @@
         <v>78</v>
       </c>
       <c r="J146" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K146" t="s" s="2">
         <v>439</v>
@@ -19301,7 +19303,7 @@
         <v>78</v>
       </c>
       <c r="W146" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X146" t="s" s="2">
         <v>440</v>
@@ -19331,13 +19333,13 @@
         <v>79</v>
       </c>
       <c r="AG146" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH146" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI146" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ146" t="s" s="2">
         <v>78</v>
@@ -19383,7 +19385,7 @@
         <v>78</v>
       </c>
       <c r="J147" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K147" t="s" s="2">
         <v>448</v>
@@ -19420,7 +19422,7 @@
         <v>78</v>
       </c>
       <c r="W147" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X147" t="s" s="2">
         <v>452</v>
@@ -19456,7 +19458,7 @@
         <v>78</v>
       </c>
       <c r="AI147" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ147" t="s" s="2">
         <v>78</v>
@@ -19490,19 +19492,19 @@
         <v>79</v>
       </c>
       <c r="F148" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G148" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H148" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I148" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G148" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H148" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I148" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J148" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K148" t="s" s="2">
         <v>457</v>
@@ -19569,13 +19571,13 @@
         <v>79</v>
       </c>
       <c r="AG148" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH148" t="s" s="2">
         <v>461</v>
       </c>
       <c r="AI148" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ148" t="s" s="2">
         <v>78</v>
@@ -19609,7 +19611,7 @@
         <v>79</v>
       </c>
       <c r="F149" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G149" t="s" s="2">
         <v>78</v>
@@ -19621,7 +19623,7 @@
         <v>78</v>
       </c>
       <c r="J149" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K149" t="s" s="2">
         <v>466</v>
@@ -19686,13 +19688,13 @@
         <v>79</v>
       </c>
       <c r="AG149" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH149" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI149" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ149" t="s" s="2">
         <v>78</v>
@@ -19726,16 +19728,16 @@
         <v>79</v>
       </c>
       <c r="F150" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G150" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H150" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I150" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="G150" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H150" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I150" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J150" t="s" s="2">
         <v>471</v>
@@ -19805,13 +19807,13 @@
         <v>79</v>
       </c>
       <c r="AG150" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH150" t="s" s="2">
         <v>461</v>
       </c>
       <c r="AI150" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ150" t="s" s="2">
         <v>78</v>
@@ -19928,7 +19930,7 @@
         <v>78</v>
       </c>
       <c r="AI151" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ151" t="s" s="2">
         <v>78</v>
@@ -19962,7 +19964,7 @@
         <v>79</v>
       </c>
       <c r="F152" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G152" t="s" s="2">
         <v>78</v>
@@ -19974,7 +19976,7 @@
         <v>78</v>
       </c>
       <c r="J152" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K152" t="s" s="2">
         <v>242</v>
@@ -20037,7 +20039,7 @@
         <v>79</v>
       </c>
       <c r="AG152" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH152" t="s" s="2">
         <v>78</v>
@@ -20070,7 +20072,7 @@
       </c>
       <c r="B153" s="2"/>
       <c r="C153" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D153" s="2"/>
       <c r="E153" t="s" s="2">
@@ -20089,16 +20091,16 @@
         <v>78</v>
       </c>
       <c r="J153" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K153" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K153" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L153" t="s" s="2">
         <v>247</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N153" s="2"/>
       <c r="O153" t="s" s="2">
@@ -20160,7 +20162,7 @@
         <v>78</v>
       </c>
       <c r="AI153" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ153" t="s" s="2">
         <v>78</v>
@@ -20200,13 +20202,13 @@
         <v>78</v>
       </c>
       <c r="H154" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I154" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J154" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K154" t="s" s="2">
         <v>251</v>
@@ -20215,10 +20217,10 @@
         <v>252</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N154" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O154" t="s" s="2">
         <v>78</v>
@@ -20279,13 +20281,13 @@
         <v>78</v>
       </c>
       <c r="AI154" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ154" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK154" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL154" t="s" s="2">
         <v>78</v>
@@ -20310,10 +20312,10 @@
       </c>
       <c r="D155" s="2"/>
       <c r="E155" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F155" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G155" t="s" s="2">
         <v>78</v>
@@ -20325,7 +20327,7 @@
         <v>78</v>
       </c>
       <c r="J155" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K155" t="s" s="2">
         <v>488</v>
@@ -20385,16 +20387,16 @@
         <v>487</v>
       </c>
       <c r="AF155" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG155" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH155" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI155" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ155" t="s" s="2">
         <v>78</v>
@@ -20425,10 +20427,10 @@
       </c>
       <c r="D156" s="2"/>
       <c r="E156" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F156" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G156" t="s" s="2">
         <v>78</v>
@@ -20504,16 +20506,16 @@
         <v>491</v>
       </c>
       <c r="AF156" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG156" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH156" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI156" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ156" t="s" s="2">
         <v>78</v>
@@ -20546,10 +20548,10 @@
       </c>
       <c r="D157" s="2"/>
       <c r="E157" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F157" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G157" t="s" s="2">
         <v>78</v>
@@ -20646,7 +20648,7 @@
         <v>405</v>
       </c>
       <c r="AM157" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN157" t="s" s="2">
         <v>406</v>
@@ -20668,7 +20670,7 @@
         <v>79</v>
       </c>
       <c r="F158" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G158" t="s" s="2">
         <v>78</v>
@@ -20680,7 +20682,7 @@
         <v>78</v>
       </c>
       <c r="J158" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K158" t="s" s="2">
         <v>242</v>
@@ -20743,7 +20745,7 @@
         <v>79</v>
       </c>
       <c r="AG158" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH158" t="s" s="2">
         <v>78</v>
@@ -20776,7 +20778,7 @@
       </c>
       <c r="B159" s="2"/>
       <c r="C159" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D159" s="2"/>
       <c r="E159" t="s" s="2">
@@ -20795,16 +20797,16 @@
         <v>78</v>
       </c>
       <c r="J159" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K159" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K159" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L159" t="s" s="2">
         <v>247</v>
       </c>
       <c r="M159" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N159" s="2"/>
       <c r="O159" t="s" s="2">
@@ -20866,7 +20868,7 @@
         <v>78</v>
       </c>
       <c r="AI159" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ159" t="s" s="2">
         <v>78</v>
@@ -20906,13 +20908,13 @@
         <v>78</v>
       </c>
       <c r="H160" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I160" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J160" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K160" t="s" s="2">
         <v>251</v>
@@ -20921,10 +20923,10 @@
         <v>252</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N160" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O160" t="s" s="2">
         <v>78</v>
@@ -20985,13 +20987,13 @@
         <v>78</v>
       </c>
       <c r="AI160" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ160" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK160" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL160" t="s" s="2">
         <v>78</v>
@@ -21016,19 +21018,19 @@
       </c>
       <c r="D161" s="2"/>
       <c r="E161" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F161" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G161" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H161" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I161" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="F161" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G161" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H161" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I161" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J161" t="s" s="2">
         <v>412</v>
@@ -21094,13 +21096,13 @@
         <v>79</v>
       </c>
       <c r="AG161" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH161" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI161" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ161" t="s" s="2">
         <v>78</v>
@@ -21112,7 +21114,7 @@
         <v>415</v>
       </c>
       <c r="AM161" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN161" t="s" s="2">
         <v>78</v>
@@ -21131,10 +21133,10 @@
       </c>
       <c r="D162" s="2"/>
       <c r="E162" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F162" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G162" t="s" s="2">
         <v>78</v>
@@ -21146,7 +21148,7 @@
         <v>78</v>
       </c>
       <c r="J162" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K162" t="s" s="2">
         <v>418</v>
@@ -21183,7 +21185,7 @@
         <v>78</v>
       </c>
       <c r="W162" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X162" t="s" s="2">
         <v>422</v>
@@ -21213,13 +21215,13 @@
         <v>79</v>
       </c>
       <c r="AG162" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH162" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI162" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ162" t="s" s="2">
         <v>78</v>
@@ -21231,7 +21233,7 @@
         <v>425</v>
       </c>
       <c r="AM162" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN162" t="s" s="2">
         <v>426</v>
@@ -21253,7 +21255,7 @@
         <v>79</v>
       </c>
       <c r="F163" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G163" t="s" s="2">
         <v>78</v>
@@ -21265,7 +21267,7 @@
         <v>78</v>
       </c>
       <c r="J163" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K163" t="s" s="2">
         <v>429</v>
@@ -21300,7 +21302,7 @@
         <v>78</v>
       </c>
       <c r="W163" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="X163" s="2"/>
       <c r="Y163" t="s" s="2">
@@ -21328,13 +21330,13 @@
         <v>79</v>
       </c>
       <c r="AG163" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH163" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI163" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ163" t="s" s="2">
         <v>78</v>
@@ -21368,7 +21370,7 @@
         <v>79</v>
       </c>
       <c r="F164" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G164" t="s" s="2">
         <v>78</v>
@@ -21380,7 +21382,7 @@
         <v>78</v>
       </c>
       <c r="J164" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K164" t="s" s="2">
         <v>439</v>
@@ -21417,7 +21419,7 @@
         <v>78</v>
       </c>
       <c r="W164" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X164" t="s" s="2">
         <v>440</v>
@@ -21447,13 +21449,13 @@
         <v>79</v>
       </c>
       <c r="AG164" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH164" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI164" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ164" t="s" s="2">
         <v>78</v>
@@ -21499,7 +21501,7 @@
         <v>78</v>
       </c>
       <c r="J165" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K165" t="s" s="2">
         <v>579</v>
@@ -21536,7 +21538,7 @@
         <v>78</v>
       </c>
       <c r="W165" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X165" t="s" s="2">
         <v>452</v>
@@ -21572,7 +21574,7 @@
         <v>78</v>
       </c>
       <c r="AI165" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ165" t="s" s="2">
         <v>78</v>
@@ -21606,19 +21608,19 @@
         <v>79</v>
       </c>
       <c r="F166" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G166" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H166" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I166" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G166" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H166" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I166" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J166" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K166" t="s" s="2">
         <v>457</v>
@@ -21685,13 +21687,13 @@
         <v>79</v>
       </c>
       <c r="AG166" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH166" t="s" s="2">
         <v>461</v>
       </c>
       <c r="AI166" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ166" t="s" s="2">
         <v>78</v>
@@ -21725,7 +21727,7 @@
         <v>79</v>
       </c>
       <c r="F167" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G167" t="s" s="2">
         <v>78</v>
@@ -21737,7 +21739,7 @@
         <v>78</v>
       </c>
       <c r="J167" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K167" t="s" s="2">
         <v>466</v>
@@ -21802,13 +21804,13 @@
         <v>79</v>
       </c>
       <c r="AG167" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH167" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI167" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ167" t="s" s="2">
         <v>78</v>
@@ -21842,16 +21844,16 @@
         <v>79</v>
       </c>
       <c r="F168" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G168" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H168" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I168" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="G168" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H168" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I168" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J168" t="s" s="2">
         <v>471</v>
@@ -21921,13 +21923,13 @@
         <v>79</v>
       </c>
       <c r="AG168" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH168" t="s" s="2">
         <v>461</v>
       </c>
       <c r="AI168" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ168" t="s" s="2">
         <v>78</v>
@@ -22044,7 +22046,7 @@
         <v>78</v>
       </c>
       <c r="AI169" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ169" t="s" s="2">
         <v>78</v>
@@ -22078,7 +22080,7 @@
         <v>79</v>
       </c>
       <c r="F170" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G170" t="s" s="2">
         <v>78</v>
@@ -22090,7 +22092,7 @@
         <v>78</v>
       </c>
       <c r="J170" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K170" t="s" s="2">
         <v>242</v>
@@ -22153,7 +22155,7 @@
         <v>79</v>
       </c>
       <c r="AG170" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH170" t="s" s="2">
         <v>78</v>
@@ -22186,7 +22188,7 @@
       </c>
       <c r="B171" s="2"/>
       <c r="C171" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D171" s="2"/>
       <c r="E171" t="s" s="2">
@@ -22205,16 +22207,16 @@
         <v>78</v>
       </c>
       <c r="J171" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K171" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K171" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L171" t="s" s="2">
         <v>247</v>
       </c>
       <c r="M171" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N171" s="2"/>
       <c r="O171" t="s" s="2">
@@ -22276,7 +22278,7 @@
         <v>78</v>
       </c>
       <c r="AI171" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ171" t="s" s="2">
         <v>78</v>
@@ -22316,13 +22318,13 @@
         <v>78</v>
       </c>
       <c r="H172" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I172" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J172" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K172" t="s" s="2">
         <v>251</v>
@@ -22331,10 +22333,10 @@
         <v>252</v>
       </c>
       <c r="M172" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N172" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O172" t="s" s="2">
         <v>78</v>
@@ -22395,13 +22397,13 @@
         <v>78</v>
       </c>
       <c r="AI172" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ172" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK172" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL172" t="s" s="2">
         <v>78</v>
@@ -22426,10 +22428,10 @@
       </c>
       <c r="D173" s="2"/>
       <c r="E173" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F173" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G173" t="s" s="2">
         <v>78</v>
@@ -22441,7 +22443,7 @@
         <v>78</v>
       </c>
       <c r="J173" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K173" t="s" s="2">
         <v>488</v>
@@ -22501,16 +22503,16 @@
         <v>487</v>
       </c>
       <c r="AF173" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG173" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH173" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI173" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ173" t="s" s="2">
         <v>78</v>
@@ -22541,10 +22543,10 @@
       </c>
       <c r="D174" s="2"/>
       <c r="E174" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F174" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G174" t="s" s="2">
         <v>78</v>
@@ -22620,16 +22622,16 @@
         <v>491</v>
       </c>
       <c r="AF174" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG174" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH174" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI174" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ174" t="s" s="2">
         <v>78</v>
